--- a/exercicios/1.2-exercicio-locadora/Modelagens/modelagem-locadora-fisico.xlsx
+++ b/exercicios/1.2-exercicio-locadora/Modelagens/modelagem-locadora-fisico.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20376"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAC0A60-BE39-4EAF-947C-72B0AC65FF0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Locadora" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -97,25 +96,25 @@
     <t>Amanda</t>
   </si>
   <si>
-    <t>AND7777</t>
-  </si>
-  <si>
-    <t>MED1707</t>
-  </si>
-  <si>
-    <t>RAL1978</t>
-  </si>
-  <si>
-    <t>MMM9876</t>
-  </si>
-  <si>
     <t>Koga Veículos</t>
+  </si>
+  <si>
+    <t>BEA-0404</t>
+  </si>
+  <si>
+    <t>AND-7777</t>
+  </si>
+  <si>
+    <t>RAL-1978</t>
+  </si>
+  <si>
+    <t>MMM-9876</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,7 +361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -397,7 +396,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -574,35 +573,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -619,7 +618,7 @@
       <c r="J1" s="20"/>
       <c r="K1" s="21"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>15</v>
       </c>
@@ -648,7 +647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -679,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -703,13 +702,13 @@
         <v>2</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -733,13 +732,13 @@
         <v>3</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="H6" s="8">
         <v>4</v>
       </c>
@@ -747,13 +746,13 @@
         <v>1</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C8" s="19" t="s">
         <v>11</v>
       </c>
@@ -764,7 +763,7 @@
       <c r="G8" s="20"/>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C9" s="16" t="s">
         <v>18</v>
       </c>
@@ -781,15 +780,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>23</v>
@@ -798,7 +797,7 @@
         <v>23324442444</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C11" s="5">
         <v>2</v>
       </c>
@@ -806,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>24</v>
@@ -815,7 +814,7 @@
         <v>32434554333</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D14" s="19" t="s">
         <v>14</v>
       </c>
@@ -824,7 +823,7 @@
       <c r="G14" s="20"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D15" s="16" t="s">
         <v>20</v>
       </c>
@@ -841,80 +840,79 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="11">
         <f>F10</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F16" s="3">
         <f>H3</f>
         <v>1</v>
       </c>
       <c r="G16" s="12">
-        <v>43484</v>
+        <v>44427</v>
       </c>
       <c r="H16" s="13">
-        <v>43485</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D17" s="1">
         <v>2</v>
       </c>
       <c r="E17" s="3">
         <f>F10</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F17" s="3">
         <f>H4</f>
         <v>2</v>
       </c>
       <c r="G17" s="12">
-        <v>43485</v>
+        <v>44428</v>
       </c>
       <c r="H17" s="13">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
+        <v>44489</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D18" s="1">
         <v>3</v>
       </c>
       <c r="E18" s="3">
         <f>F11</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F18" s="3">
         <f>D5</f>
         <v>3</v>
       </c>
       <c r="G18" s="12">
-        <v>43486</v>
+        <v>44429</v>
       </c>
       <c r="H18" s="13">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
+        <v>44490</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D19" s="5">
         <v>4</v>
       </c>
       <c r="E19" s="7">
         <f>F11</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F19" s="7">
-        <f>D4</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19" s="14">
-        <v>43487</v>
+        <v>44430</v>
       </c>
       <c r="H19" s="15">
-        <v>43487</v>
+        <v>44491</v>
       </c>
     </row>
   </sheetData>
